--- a/Entregables/Copia de Formato_Especificacion_de_Requerimientos.xlsx
+++ b/Entregables/Copia de Formato_Especificacion_de_Requerimientos.xlsx
@@ -869,8 +869,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF729FCF"/>
-        <bgColor rgb="FF808080"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1216,7 +1216,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFBFBFBF"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF729FCF"/>
+      <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFEAEAEA"/>
       <rgbColor rgb="FFCCFFFF"/>
@@ -1269,7 +1269,7 @@
   <dimension ref="A1:T56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F59" activeCellId="0" sqref="F59"/>
+      <selection pane="topLeft" activeCell="D53" activeCellId="0" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
